--- a/biology/Botanique/Espostoa/Espostoa.xlsx
+++ b/biology/Botanique/Espostoa/Espostoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Espostoa est un genre de la famille des cactus composé de seize espèces. Il est dédié à Nicolas E. Esposto, botaniste péruvien de Lima.
 Ce sont des cierges arbustifs ou arborescents couverts d'épines denses et portant souvent des poils ou des cheveux blancs. Seuls les spécimens âgés peuvent se ramifier. Ils sont parfois surnommés "vieil homme péruvien".
@@ -520,8 +532,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Espostoa lanata Britton &amp; Rose - Parfois surnommée "vieil homme péruvien", c'est l'espèce la plus répandue. Type arborescent pouvant atteindre 5 m de hauteur dans la nature et 1 m en culture. Tronc de 5 à 12 cm de diamètre, comportant 20 à 25 côtes aplaties masquées par les tissus laineux. La couverture blanche est due à de longues mèches retombantes. Les aiguillons centraux acérés arrivent à la longue à traverser la laine et atteindre 3 cm de long. Les plantes âgées présentent un céphalium latéral d'où sortent des fleurs nocturnes blanches à l'extérieur rouge.
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Espostoa lanata Britton &amp; Rose - Parfois surnommée "vieil homme péruvien", c'est l'espèce la plus répandue. Type arborescent pouvant atteindre 5 m de hauteur dans la nature et 1 m en culture. Tronc de 5 à 12 cm de diamètre, comportant 20 à 25 côtes aplaties masquées par les tissus laineux. La couverture blanche est due à de longues mèches retombantes. Les aiguillons centraux acérés arrivent à la longue à traverser la laine et atteindre 3 cm de long. Les plantes âgées présentent un céphalium latéral d'où sortent des fleurs nocturnes blanches à l'extérieur rouge.
 Espostoa baumannii
 Espostoa blossfeldiorum
 Espostoa calva
@@ -536,9 +553,43 @@
 Espostoa ritteri
 Espostoa ruficeps
 Espostoa senilis
-Espostoa superba
-Synonymes
-Les genres ou espèces suivantes ont été inclus dans le genre Espostoa : 
+Espostoa superba</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Espostoa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espostoa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les genres ou espèces suivantes ont été inclus dans le genre Espostoa : 
 Binghamia Britton &amp; Rose
 Pseudoespostoa Backeb.
 Thrixanthocereus Backeb.
